--- a/DataEvaluation/data/data_hir.xlsx
+++ b/DataEvaluation/data/data_hir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\bachelor-arbeit\DataEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\bachelor-arbeit\DataEvaluation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4359B13A-1E64-4DC4-9011-0B029614903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794D530-7D48-4774-AE4B-390C4A511645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hir" sheetId="1" r:id="rId1"/>
@@ -3136,9 +3136,6 @@
     <t>2367 2823 3276 3747 4376 7987 9704 10205 10887 11372 12572 13293 20327 25302 25751 26268 26748 27601 30234 30804 32589 33557 36578 37131 37622 38880 39950 41746 50340 53956 56513 58448 59261 59950 60482 61047 61385 62533</t>
   </si>
   <si>
-    <t>83--1 89-23 104-39 117-69 126-91 116-143 118-163 86-249 98-276 106-299 151-331 255-354 241-397 224-509 222-531 221-559 201-580 192-627 221-598</t>
-  </si>
-  <si>
     <t>5012 5482 6047 6531 7074 9131 9647 11320 11749 12154 13421 14707 17236 19008 19694 20277 21376 22162 32135</t>
   </si>
   <si>
@@ -4316,6 +4313,9 @@
   </si>
   <si>
     <t>4186 4918 5406 6007 6445 7434 8443 9723 11707 13125 13558 14958 17242 18078 19694 20694 28427 30799 32783 33934 34883 35766 37735 42669 43704 44837</t>
+  </si>
+  <si>
+    <t>83-1 89-23 104-39 117-69 126-91 116-143 118-163 86-249 98-276 106-299 151-331 255-354 241-397 224-509 222-531 221-559 201-580 192-627 221-598</t>
   </si>
 </sst>
 </file>
@@ -4676,12 +4676,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JO50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="FS1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CZ32" sqref="A32:XFD32"/>
+      <selection pane="bottomLeft" activeCell="FV36" sqref="FV36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
@@ -4798,7 +4798,7 @@
     <col min="268" max="275" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>275</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>194</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>195</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>196</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>198</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>199</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>202</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>203</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>204</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>212</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>213</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>223</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>228</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>229</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>230</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>236</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>238</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>243</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>244</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>245</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>250</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>251</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>252</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>253</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>259</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>260</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>264</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>271</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>272</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>282</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>294</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>295</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>296</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>297</v>
       </c>
@@ -20996,40 +20996,40 @@
       <c r="FT36" s="2"/>
       <c r="FU36" s="2"/>
       <c r="FV36" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="FW36" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="FW36" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="FX36" s="2"/>
       <c r="FY36" s="2"/>
       <c r="FZ36" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="GA36" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="GA36" s="2" t="s">
-        <v>1041</v>
       </c>
       <c r="GB36" s="2"/>
       <c r="GC36" s="2"/>
       <c r="GD36" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="GE36" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="GE36" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="GF36" s="2"/>
       <c r="GG36" s="2"/>
       <c r="GH36" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="GI36" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="GI36" s="2" t="s">
+      <c r="GJ36" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="GJ36" s="2" t="s">
+      <c r="GK36" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="GK36" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="GL36" s="2"/>
       <c r="GM36" s="2"/>
@@ -21044,26 +21044,26 @@
       <c r="GV36" s="2"/>
       <c r="GW36" s="2"/>
       <c r="GX36" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="GY36" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="GY36" s="2" t="s">
-        <v>1049</v>
       </c>
       <c r="GZ36" s="2"/>
       <c r="HA36" s="2"/>
       <c r="HB36" s="2"/>
       <c r="HC36" s="2"/>
       <c r="HD36" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="HE36" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="HE36" s="2" t="s">
+      <c r="HF36" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="HF36" s="2" t="s">
+      <c r="HG36" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="HG36" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="HH36" s="2"/>
       <c r="HI36" s="2"/>
@@ -21072,10 +21072,10 @@
       <c r="HL36" s="2"/>
       <c r="HM36" s="2"/>
       <c r="HN36" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="HO36" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="HO36" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="HP36" s="2"/>
       <c r="HQ36" s="2"/>
@@ -21090,10 +21090,10 @@
       <c r="HZ36" s="2"/>
       <c r="IA36" s="2"/>
       <c r="IB36" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="IC36" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="IC36" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="ID36" s="1">
         <v>2</v>
@@ -21192,7 +21192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>298</v>
       </c>
@@ -21236,7 +21236,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AB37" s="1">
         <v>1</v>
@@ -21262,7 +21262,7 @@
         <v>1</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AL37" s="1">
         <v>1</v>
@@ -21368,7 +21368,7 @@
       <c r="DE37" s="2"/>
       <c r="DF37" s="1"/>
       <c r="DG37" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="DH37" s="2" t="s">
         <v>418</v>
@@ -21377,13 +21377,13 @@
         <v>400</v>
       </c>
       <c r="DJ37" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="DK37" s="2" t="s">
         <v>400</v>
       </c>
       <c r="DL37" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="DM37" s="1">
         <v>3</v>
@@ -21437,10 +21437,10 @@
         <v>4</v>
       </c>
       <c r="ED37" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="EE37" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="EE37" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="EF37" s="2"/>
       <c r="EG37" s="2"/>
@@ -21453,10 +21453,10 @@
       <c r="EN37" s="2"/>
       <c r="EO37" s="2"/>
       <c r="EP37" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EQ37" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="EQ37" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="ER37" s="2"/>
       <c r="ES37" s="2"/>
@@ -21465,42 +21465,42 @@
       <c r="EV37" s="2"/>
       <c r="EW37" s="2"/>
       <c r="EX37" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="EY37" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="EY37" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="EZ37" s="2"/>
       <c r="FA37" s="2"/>
       <c r="FB37" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="FC37" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="FC37" s="2" t="s">
+      <c r="FD37" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="FD37" s="2" t="s">
+      <c r="FE37" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="FE37" s="2" t="s">
+      <c r="FF37" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="FF37" s="2" t="s">
+      <c r="FG37" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="FG37" s="2" t="s">
+      <c r="FH37" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="FH37" s="2" t="s">
+      <c r="FI37" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="FI37" s="2" t="s">
+      <c r="FJ37" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="FJ37" s="2" t="s">
+      <c r="FK37" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="FK37" s="2" t="s">
-        <v>1078</v>
       </c>
       <c r="FL37" s="2"/>
       <c r="FM37" s="2"/>
@@ -21521,10 +21521,10 @@
       <c r="GB37" s="2"/>
       <c r="GC37" s="2"/>
       <c r="GD37" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="GE37" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="GE37" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="GF37" s="2"/>
       <c r="GG37" s="2"/>
@@ -21533,16 +21533,16 @@
       <c r="GJ37" s="2"/>
       <c r="GK37" s="2"/>
       <c r="GL37" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="GM37" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="GM37" s="2" t="s">
+      <c r="GN37" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="GN37" s="2" t="s">
+      <c r="GO37" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="GO37" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="GP37" s="2"/>
       <c r="GQ37" s="2"/>
@@ -21551,10 +21551,10 @@
       <c r="GT37" s="2"/>
       <c r="GU37" s="2"/>
       <c r="GV37" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="GW37" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="GW37" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="GX37" s="2"/>
       <c r="GY37" s="2"/>
@@ -21563,10 +21563,10 @@
       <c r="HB37" s="2"/>
       <c r="HC37" s="2"/>
       <c r="HD37" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="HE37" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="HE37" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="HF37" s="2"/>
       <c r="HG37" s="2"/>
@@ -21581,10 +21581,10 @@
       <c r="HP37" s="2"/>
       <c r="HQ37" s="2"/>
       <c r="HR37" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="HS37" s="2" t="s">
         <v>1089</v>
-      </c>
-      <c r="HS37" s="2" t="s">
-        <v>1090</v>
       </c>
       <c r="HT37" s="2"/>
       <c r="HU37" s="2"/>
@@ -21689,7 +21689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>302</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
@@ -21737,7 +21737,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Z38" s="1">
         <v>1</v>
@@ -21761,7 +21761,7 @@
       <c r="AM38" s="2"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AP38" s="1">
         <v>1</v>
@@ -21851,7 +21851,7 @@
       <c r="CY38" s="2"/>
       <c r="CZ38" s="1"/>
       <c r="DA38" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="DB38" s="1">
         <v>1</v>
@@ -21930,28 +21930,28 @@
         <v>3</v>
       </c>
       <c r="ED38" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="EE38" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="EE38" s="2" t="s">
+      <c r="EF38" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="EF38" s="2" t="s">
+      <c r="EG38" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="EG38" s="2" t="s">
+      <c r="EH38" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="EH38" s="2" t="s">
+      <c r="EI38" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="EI38" s="2" t="s">
+      <c r="EJ38" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EJ38" s="2" t="s">
+      <c r="EK38" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="EK38" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="EL38" s="2"/>
       <c r="EM38" s="2"/>
@@ -21964,10 +21964,10 @@
       <c r="ET38" s="2"/>
       <c r="EU38" s="2"/>
       <c r="EV38" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="EW38" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="EW38" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="EX38" s="2"/>
       <c r="EY38" s="2"/>
@@ -21976,10 +21976,10 @@
       <c r="FB38" s="2"/>
       <c r="FC38" s="2"/>
       <c r="FD38" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="FE38" s="2" t="s">
         <v>1105</v>
-      </c>
-      <c r="FE38" s="2" t="s">
-        <v>1106</v>
       </c>
       <c r="FF38" s="2"/>
       <c r="FG38" s="2"/>
@@ -21988,24 +21988,24 @@
       <c r="FJ38" s="2"/>
       <c r="FK38" s="2"/>
       <c r="FL38" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="FM38" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="FM38" s="2" t="s">
+      <c r="FN38" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="FN38" s="2" t="s">
+      <c r="FO38" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="FO38" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="FP38" s="2"/>
       <c r="FQ38" s="2"/>
       <c r="FR38" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="FS38" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="FS38" s="2" t="s">
-        <v>1112</v>
       </c>
       <c r="FT38" s="2"/>
       <c r="FU38" s="2"/>
@@ -22016,16 +22016,16 @@
       <c r="FZ38" s="2"/>
       <c r="GA38" s="2"/>
       <c r="GB38" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="GC38" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="GC38" s="2" t="s">
+      <c r="GD38" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="GD38" s="2" t="s">
+      <c r="GE38" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="GE38" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="GF38" s="2"/>
       <c r="GG38" s="2"/>
@@ -22048,18 +22048,18 @@
       <c r="GX38" s="2"/>
       <c r="GY38" s="2"/>
       <c r="GZ38" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="HA38" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="HA38" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="HB38" s="2"/>
       <c r="HC38" s="2"/>
       <c r="HD38" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="HE38" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="HE38" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="HF38" s="2"/>
       <c r="HG38" s="2"/>
@@ -22072,26 +22072,26 @@
       <c r="HN38" s="2"/>
       <c r="HO38" s="2"/>
       <c r="HP38" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="HQ38" s="2" t="s">
         <v>1121</v>
-      </c>
-      <c r="HQ38" s="2" t="s">
-        <v>1122</v>
       </c>
       <c r="HR38" s="2"/>
       <c r="HS38" s="2"/>
       <c r="HT38" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="HU38" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="HU38" s="2" t="s">
-        <v>1124</v>
       </c>
       <c r="HV38" s="2"/>
       <c r="HW38" s="2"/>
       <c r="HX38" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="HY38" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="HY38" s="2" t="s">
-        <v>1126</v>
       </c>
       <c r="HZ38" s="2"/>
       <c r="IA38" s="2"/>
@@ -22194,7 +22194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>306</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>395</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -22240,7 +22240,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AH39" s="1">
         <v>1</v>
@@ -22272,7 +22272,7 @@
       <c r="BE39" s="2"/>
       <c r="BF39" s="1"/>
       <c r="BG39" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="BH39" s="1">
         <v>1</v>
@@ -22304,7 +22304,7 @@
         <v>2</v>
       </c>
       <c r="CG39" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="CH39" s="1">
         <v>1</v>
@@ -22326,7 +22326,7 @@
       <c r="CW39" s="2"/>
       <c r="CX39" s="1"/>
       <c r="CY39" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="CZ39" s="1">
         <v>1</v>
@@ -22338,7 +22338,7 @@
       <c r="DE39" s="2"/>
       <c r="DF39" s="1"/>
       <c r="DG39" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="DH39" s="2" t="s">
         <v>418</v>
@@ -22407,10 +22407,10 @@
         <v>2</v>
       </c>
       <c r="ED39" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="EE39" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="EE39" s="2" t="s">
-        <v>1130</v>
       </c>
       <c r="EF39" s="2"/>
       <c r="EG39" s="2"/>
@@ -22437,10 +22437,10 @@
       <c r="FB39" s="2"/>
       <c r="FC39" s="2"/>
       <c r="FD39" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="FE39" s="2" t="s">
         <v>1131</v>
-      </c>
-      <c r="FE39" s="2" t="s">
-        <v>1132</v>
       </c>
       <c r="FF39" s="2"/>
       <c r="FG39" s="2"/>
@@ -22467,10 +22467,10 @@
       <c r="GB39" s="2"/>
       <c r="GC39" s="2"/>
       <c r="GD39" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="GE39" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="GE39" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="GF39" s="2"/>
       <c r="GG39" s="2"/>
@@ -22497,10 +22497,10 @@
       <c r="HB39" s="2"/>
       <c r="HC39" s="2"/>
       <c r="HD39" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="HE39" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="HE39" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="HF39" s="2"/>
       <c r="HG39" s="2"/>
@@ -22605,7 +22605,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>307</v>
       </c>
@@ -22769,7 +22769,7 @@
       <c r="DE40" s="2"/>
       <c r="DF40" s="1"/>
       <c r="DG40" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="DH40" s="2" t="s">
         <v>667</v>
@@ -22838,36 +22838,36 @@
         <v>3</v>
       </c>
       <c r="ED40" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EE40" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="EE40" s="2" t="s">
-        <v>1138</v>
       </c>
       <c r="EF40" s="2"/>
       <c r="EG40" s="2"/>
       <c r="EH40" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EI40" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="EI40" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="EJ40" s="2"/>
       <c r="EK40" s="2"/>
       <c r="EL40" s="2"/>
       <c r="EM40" s="2"/>
       <c r="EN40" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EO40" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="EO40" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="EP40" s="2"/>
       <c r="EQ40" s="2"/>
       <c r="ER40" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="ES40" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="ES40" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="ET40" s="2"/>
       <c r="EU40" s="2"/>
@@ -22880,10 +22880,10 @@
       <c r="FB40" s="2"/>
       <c r="FC40" s="2"/>
       <c r="FD40" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="FE40" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="FE40" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="FF40" s="2"/>
       <c r="FG40" s="2"/>
@@ -22908,22 +22908,22 @@
       <c r="FZ40" s="2"/>
       <c r="GA40" s="2"/>
       <c r="GB40" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="GC40" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="GC40" s="2" t="s">
+      <c r="GD40" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="GD40" s="2" t="s">
+      <c r="GE40" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="GE40" s="2" t="s">
+      <c r="GF40" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="GF40" s="2" t="s">
+      <c r="GG40" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="GG40" s="2" t="s">
-        <v>1152</v>
       </c>
       <c r="GH40" s="2"/>
       <c r="GI40" s="2"/>
@@ -22934,18 +22934,18 @@
       <c r="GN40" s="2"/>
       <c r="GO40" s="2"/>
       <c r="GP40" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="GQ40" s="2" t="s">
         <v>1153</v>
-      </c>
-      <c r="GQ40" s="2" t="s">
-        <v>1154</v>
       </c>
       <c r="GR40" s="2"/>
       <c r="GS40" s="2"/>
       <c r="GT40" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="GU40" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="GU40" s="2" t="s">
-        <v>1156</v>
       </c>
       <c r="GV40" s="2"/>
       <c r="GW40" s="2"/>
@@ -22956,10 +22956,10 @@
       <c r="HB40" s="2"/>
       <c r="HC40" s="2"/>
       <c r="HD40" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="HE40" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="HE40" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="HF40" s="2"/>
       <c r="HG40" s="2"/>
@@ -22968,10 +22968,10 @@
       <c r="HJ40" s="2"/>
       <c r="HK40" s="2"/>
       <c r="HL40" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="HM40" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="HM40" s="2" t="s">
-        <v>1160</v>
       </c>
       <c r="HN40" s="2"/>
       <c r="HO40" s="2"/>
@@ -23078,7 +23078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>308</v>
       </c>
@@ -23311,10 +23311,10 @@
         <v>5</v>
       </c>
       <c r="ED41" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EE41" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="EE41" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="EF41" s="2"/>
       <c r="EG41" s="2"/>
@@ -23323,10 +23323,10 @@
       <c r="EJ41" s="2"/>
       <c r="EK41" s="2"/>
       <c r="EL41" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="EM41" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="EM41" s="2" t="s">
-        <v>1164</v>
       </c>
       <c r="EN41" s="2"/>
       <c r="EO41" s="2"/>
@@ -23345,34 +23345,34 @@
       <c r="FB41" s="2"/>
       <c r="FC41" s="2"/>
       <c r="FD41" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="FE41" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="FE41" s="2" t="s">
+      <c r="FF41" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="FF41" s="2" t="s">
+      <c r="FG41" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="FG41" s="2" t="s">
-        <v>1168</v>
       </c>
       <c r="FH41" s="2"/>
       <c r="FI41" s="2"/>
       <c r="FJ41" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="FK41" s="2" t="s">
         <v>1169</v>
-      </c>
-      <c r="FK41" s="2" t="s">
-        <v>1170</v>
       </c>
       <c r="FL41" s="2"/>
       <c r="FM41" s="2"/>
       <c r="FN41" s="2"/>
       <c r="FO41" s="2"/>
       <c r="FP41" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="FQ41" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="FQ41" s="2" t="s">
-        <v>1172</v>
       </c>
       <c r="FR41" s="2"/>
       <c r="FS41" s="2"/>
@@ -23387,10 +23387,10 @@
       <c r="GB41" s="2"/>
       <c r="GC41" s="2"/>
       <c r="GD41" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="GE41" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="GE41" s="2" t="s">
-        <v>1174</v>
       </c>
       <c r="GF41" s="2"/>
       <c r="GG41" s="2"/>
@@ -23411,24 +23411,24 @@
       <c r="GV41" s="2"/>
       <c r="GW41" s="2"/>
       <c r="GX41" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="GY41" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="GY41" s="2" t="s">
+      <c r="GZ41" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="GZ41" s="2" t="s">
+      <c r="HA41" s="2" t="s">
         <v>1177</v>
-      </c>
-      <c r="HA41" s="2" t="s">
-        <v>1178</v>
       </c>
       <c r="HB41" s="2"/>
       <c r="HC41" s="2"/>
       <c r="HD41" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="HE41" s="2" t="s">
         <v>1179</v>
-      </c>
-      <c r="HE41" s="2" t="s">
-        <v>1180</v>
       </c>
       <c r="HF41" s="2"/>
       <c r="HG41" s="2"/>
@@ -23439,10 +23439,10 @@
       <c r="HL41" s="2"/>
       <c r="HM41" s="2"/>
       <c r="HN41" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="HO41" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="HO41" s="2" t="s">
-        <v>1182</v>
       </c>
       <c r="HP41" s="2"/>
       <c r="HQ41" s="2"/>
@@ -23545,7 +23545,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>309</v>
       </c>
@@ -23798,10 +23798,10 @@
         <v>3</v>
       </c>
       <c r="ED42" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="EE42" s="2" t="s">
         <v>1183</v>
-      </c>
-      <c r="EE42" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="EF42" s="2"/>
       <c r="EG42" s="2"/>
@@ -23812,16 +23812,16 @@
       <c r="EL42" s="2"/>
       <c r="EM42" s="2"/>
       <c r="EN42" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="EO42" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="EO42" s="2" t="s">
+      <c r="EP42" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="EP42" s="2" t="s">
+      <c r="EQ42" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="EQ42" s="2" t="s">
-        <v>1188</v>
       </c>
       <c r="ER42" s="2"/>
       <c r="ES42" s="2"/>
@@ -23830,28 +23830,28 @@
       <c r="EV42" s="2"/>
       <c r="EW42" s="2"/>
       <c r="EX42" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="EY42" s="2" t="s">
         <v>1189</v>
-      </c>
-      <c r="EY42" s="2" t="s">
-        <v>1190</v>
       </c>
       <c r="EZ42" s="2"/>
       <c r="FA42" s="2"/>
       <c r="FB42" s="2"/>
       <c r="FC42" s="2"/>
       <c r="FD42" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="FE42" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="FE42" s="2" t="s">
-        <v>1192</v>
       </c>
       <c r="FF42" s="2"/>
       <c r="FG42" s="2"/>
       <c r="FH42" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="FI42" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="FI42" s="2" t="s">
-        <v>1194</v>
       </c>
       <c r="FJ42" s="2"/>
       <c r="FK42" s="2"/>
@@ -23862,10 +23862,10 @@
       <c r="FP42" s="2"/>
       <c r="FQ42" s="2"/>
       <c r="FR42" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="FS42" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="FS42" s="2" t="s">
-        <v>1196</v>
       </c>
       <c r="FT42" s="2"/>
       <c r="FU42" s="2"/>
@@ -23874,38 +23874,38 @@
       <c r="FX42" s="2"/>
       <c r="FY42" s="2"/>
       <c r="FZ42" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="GA42" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="GA42" s="2" t="s">
-        <v>1198</v>
       </c>
       <c r="GB42" s="2"/>
       <c r="GC42" s="2"/>
       <c r="GD42" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="GE42" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="GE42" s="2" t="s">
+      <c r="GF42" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="GF42" s="2" t="s">
+      <c r="GG42" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="GG42" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="GH42" s="2"/>
       <c r="GI42" s="2"/>
       <c r="GJ42" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="GK42" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="GK42" s="2" t="s">
+      <c r="GL42" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="GL42" s="2" t="s">
+      <c r="GM42" s="2" t="s">
         <v>1205</v>
-      </c>
-      <c r="GM42" s="2" t="s">
-        <v>1206</v>
       </c>
       <c r="GN42" s="2"/>
       <c r="GO42" s="2"/>
@@ -23924,10 +23924,10 @@
       <c r="HB42" s="2"/>
       <c r="HC42" s="2"/>
       <c r="HD42" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="HE42" s="2" t="s">
         <v>1207</v>
-      </c>
-      <c r="HE42" s="2" t="s">
-        <v>1208</v>
       </c>
       <c r="HF42" s="2"/>
       <c r="HG42" s="2"/>
@@ -23944,26 +23944,26 @@
       <c r="HR42" s="2"/>
       <c r="HS42" s="2"/>
       <c r="HT42" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="HU42" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="HU42" s="2" t="s">
+      <c r="HV42" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="HV42" s="2" t="s">
+      <c r="HW42" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="HW42" s="2" t="s">
-        <v>1212</v>
       </c>
       <c r="HX42" s="2"/>
       <c r="HY42" s="2"/>
       <c r="HZ42" s="2"/>
       <c r="IA42" s="2"/>
       <c r="IB42" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="IC42" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="IC42" s="2" t="s">
-        <v>1214</v>
       </c>
       <c r="ID42" s="1">
         <v>2</v>
@@ -24062,7 +24062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>313</v>
       </c>
@@ -24289,20 +24289,20 @@
         <v>2</v>
       </c>
       <c r="ED43" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="EE43" s="2" t="s">
         <v>1215</v>
-      </c>
-      <c r="EE43" s="2" t="s">
-        <v>1216</v>
       </c>
       <c r="EF43" s="2"/>
       <c r="EG43" s="2"/>
       <c r="EH43" s="2"/>
       <c r="EI43" s="2"/>
       <c r="EJ43" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="EK43" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="EK43" s="2" t="s">
-        <v>1218</v>
       </c>
       <c r="EL43" s="2"/>
       <c r="EM43" s="2"/>
@@ -24323,10 +24323,10 @@
       <c r="FB43" s="2"/>
       <c r="FC43" s="2"/>
       <c r="FD43" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="FE43" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="FE43" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="FF43" s="2"/>
       <c r="FG43" s="2"/>
@@ -24353,18 +24353,18 @@
       <c r="GB43" s="2"/>
       <c r="GC43" s="2"/>
       <c r="GD43" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="GE43" s="2" t="s">
         <v>1221</v>
-      </c>
-      <c r="GE43" s="2" t="s">
-        <v>1222</v>
       </c>
       <c r="GF43" s="2"/>
       <c r="GG43" s="2"/>
       <c r="GH43" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="GI43" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="GI43" s="2" t="s">
-        <v>1224</v>
       </c>
       <c r="GJ43" s="2"/>
       <c r="GK43" s="2"/>
@@ -24373,10 +24373,10 @@
       <c r="GN43" s="2"/>
       <c r="GO43" s="2"/>
       <c r="GP43" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="GQ43" s="2" t="s">
         <v>1225</v>
-      </c>
-      <c r="GQ43" s="2" t="s">
-        <v>1226</v>
       </c>
       <c r="GR43" s="2"/>
       <c r="GS43" s="2"/>
@@ -24389,32 +24389,32 @@
       <c r="GZ43" s="2"/>
       <c r="HA43" s="2"/>
       <c r="HB43" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="HC43" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="HC43" s="2" t="s">
+      <c r="HD43" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="HD43" s="2" t="s">
+      <c r="HE43" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="HE43" s="2" t="s">
+      <c r="HF43" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="HF43" s="2" t="s">
+      <c r="HG43" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="HG43" s="2" t="s">
-        <v>1232</v>
       </c>
       <c r="HH43" s="2"/>
       <c r="HI43" s="2"/>
       <c r="HJ43" s="2"/>
       <c r="HK43" s="2"/>
       <c r="HL43" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="HM43" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="HM43" s="2" t="s">
-        <v>1234</v>
       </c>
       <c r="HN43" s="2"/>
       <c r="HO43" s="2"/>
@@ -24517,7 +24517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>314</v>
       </c>
@@ -24701,7 +24701,7 @@
       <c r="DE44" s="2"/>
       <c r="DF44" s="1"/>
       <c r="DG44" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="DH44" s="2" t="s">
         <v>418</v>
@@ -24770,16 +24770,16 @@
         <v>5</v>
       </c>
       <c r="ED44" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="EE44" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="EE44" s="2" t="s">
+      <c r="EF44" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="EF44" s="2" t="s">
+      <c r="EG44" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="EG44" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="EH44" s="2"/>
       <c r="EI44" s="2"/>
@@ -24794,32 +24794,32 @@
       <c r="ER44" s="2"/>
       <c r="ES44" s="2"/>
       <c r="ET44" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="EU44" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="EU44" s="2" t="s">
+      <c r="EV44" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="EV44" s="2" t="s">
+      <c r="EW44" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="EW44" s="2" t="s">
-        <v>1243</v>
       </c>
       <c r="EX44" s="2"/>
       <c r="EY44" s="2"/>
       <c r="EZ44" s="2"/>
       <c r="FA44" s="2"/>
       <c r="FB44" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="FC44" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="FC44" s="2" t="s">
+      <c r="FD44" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="FD44" s="2" t="s">
+      <c r="FE44" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="FE44" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="FF44" s="2"/>
       <c r="FG44" s="2"/>
@@ -24828,16 +24828,16 @@
       <c r="FJ44" s="2"/>
       <c r="FK44" s="2"/>
       <c r="FL44" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="FM44" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="FM44" s="2" t="s">
+      <c r="FN44" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="FN44" s="2" t="s">
+      <c r="FO44" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="FO44" s="2" t="s">
-        <v>1251</v>
       </c>
       <c r="FP44" s="2"/>
       <c r="FQ44" s="2"/>
@@ -24854,10 +24854,10 @@
       <c r="GB44" s="2"/>
       <c r="GC44" s="2"/>
       <c r="GD44" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="GE44" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="GE44" s="2" t="s">
-        <v>1253</v>
       </c>
       <c r="GF44" s="2"/>
       <c r="GG44" s="2"/>
@@ -24884,56 +24884,56 @@
       <c r="HB44" s="2"/>
       <c r="HC44" s="2"/>
       <c r="HD44" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="HE44" s="2" t="s">
         <v>1254</v>
-      </c>
-      <c r="HE44" s="2" t="s">
-        <v>1255</v>
       </c>
       <c r="HF44" s="2"/>
       <c r="HG44" s="2"/>
       <c r="HH44" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="HI44" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="HI44" s="2" t="s">
+      <c r="HJ44" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="HJ44" s="2" t="s">
+      <c r="HK44" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="HK44" s="2" t="s">
-        <v>1259</v>
       </c>
       <c r="HL44" s="2"/>
       <c r="HM44" s="2"/>
       <c r="HN44" s="2"/>
       <c r="HO44" s="2"/>
       <c r="HP44" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="HQ44" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="HQ44" s="2" t="s">
+      <c r="HR44" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="HR44" s="2" t="s">
+      <c r="HS44" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="HS44" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="HT44" s="2"/>
       <c r="HU44" s="2"/>
       <c r="HV44" s="2"/>
       <c r="HW44" s="2"/>
       <c r="HX44" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="HY44" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="HY44" s="2" t="s">
+      <c r="HZ44" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="HZ44" s="2" t="s">
+      <c r="IA44" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="IA44" s="2" t="s">
-        <v>1267</v>
       </c>
       <c r="IB44" s="2"/>
       <c r="IC44" s="2"/>
@@ -25034,7 +25034,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>315</v>
       </c>
@@ -25283,18 +25283,18 @@
         <v>3</v>
       </c>
       <c r="ED45" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="EE45" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="EE45" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="EF45" s="2"/>
       <c r="EG45" s="2"/>
       <c r="EH45" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="EI45" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="EI45" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="EJ45" s="2"/>
       <c r="EK45" s="2"/>
@@ -25311,24 +25311,24 @@
       <c r="EV45" s="2"/>
       <c r="EW45" s="2"/>
       <c r="EX45" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="EY45" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="EY45" s="2" t="s">
+      <c r="EZ45" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="EZ45" s="2" t="s">
+      <c r="FA45" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="FA45" s="2" t="s">
-        <v>1275</v>
       </c>
       <c r="FB45" s="2"/>
       <c r="FC45" s="2"/>
       <c r="FD45" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="FE45" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="FE45" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="FF45" s="2"/>
       <c r="FG45" s="2"/>
@@ -25341,24 +25341,24 @@
       <c r="FN45" s="2"/>
       <c r="FO45" s="2"/>
       <c r="FP45" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="FQ45" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="FQ45" s="2" t="s">
-        <v>1279</v>
       </c>
       <c r="FR45" s="2"/>
       <c r="FS45" s="2"/>
       <c r="FT45" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="FU45" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="FU45" s="2" t="s">
+      <c r="FV45" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="FV45" s="2" t="s">
+      <c r="FW45" s="2" t="s">
         <v>1282</v>
-      </c>
-      <c r="FW45" s="2" t="s">
-        <v>1283</v>
       </c>
       <c r="FX45" s="2"/>
       <c r="FY45" s="2"/>
@@ -25367,10 +25367,10 @@
       <c r="GB45" s="2"/>
       <c r="GC45" s="2"/>
       <c r="GD45" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="GE45" s="2" t="s">
         <v>1284</v>
-      </c>
-      <c r="GE45" s="2" t="s">
-        <v>1285</v>
       </c>
       <c r="GF45" s="2"/>
       <c r="GG45" s="2"/>
@@ -25381,18 +25381,18 @@
       <c r="GL45" s="2"/>
       <c r="GM45" s="2"/>
       <c r="GN45" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="GO45" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="GO45" s="2" t="s">
-        <v>1287</v>
       </c>
       <c r="GP45" s="2"/>
       <c r="GQ45" s="2"/>
       <c r="GR45" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="GS45" s="2" t="s">
         <v>1288</v>
-      </c>
-      <c r="GS45" s="2" t="s">
-        <v>1289</v>
       </c>
       <c r="GT45" s="2"/>
       <c r="GU45" s="2"/>
@@ -25405,26 +25405,26 @@
       <c r="HB45" s="2"/>
       <c r="HC45" s="2"/>
       <c r="HD45" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="HE45" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="HE45" s="2" t="s">
+      <c r="HF45" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="HF45" s="2" t="s">
+      <c r="HG45" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="HG45" s="2" t="s">
-        <v>1293</v>
       </c>
       <c r="HH45" s="2"/>
       <c r="HI45" s="2"/>
       <c r="HJ45" s="2"/>
       <c r="HK45" s="2"/>
       <c r="HL45" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="HM45" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="HM45" s="2" t="s">
-        <v>1295</v>
       </c>
       <c r="HN45" s="2"/>
       <c r="HO45" s="2"/>
@@ -25441,10 +25441,10 @@
       <c r="HZ45" s="2"/>
       <c r="IA45" s="2"/>
       <c r="IB45" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="IC45" s="2" t="s">
         <v>1296</v>
-      </c>
-      <c r="IC45" s="2" t="s">
-        <v>1297</v>
       </c>
       <c r="ID45" s="1">
         <v>1</v>
@@ -25541,7 +25541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>316</v>
       </c>
@@ -25571,7 +25571,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
@@ -25792,24 +25792,24 @@
         <v>3</v>
       </c>
       <c r="ED46" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="EE46" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="EE46" s="2" t="s">
+      <c r="EF46" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="EF46" s="2" t="s">
+      <c r="EG46" s="2" t="s">
         <v>1301</v>
-      </c>
-      <c r="EG46" s="2" t="s">
-        <v>1302</v>
       </c>
       <c r="EH46" s="2"/>
       <c r="EI46" s="2"/>
       <c r="EJ46" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="EK46" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="EK46" s="2" t="s">
-        <v>1304</v>
       </c>
       <c r="EL46" s="2"/>
       <c r="EM46" s="2"/>
@@ -25822,10 +25822,10 @@
       <c r="ET46" s="2"/>
       <c r="EU46" s="2"/>
       <c r="EV46" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="EW46" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="EW46" s="2" t="s">
-        <v>1306</v>
       </c>
       <c r="EX46" s="2"/>
       <c r="EY46" s="2"/>
@@ -25850,56 +25850,56 @@
       <c r="FR46" s="2"/>
       <c r="FS46" s="2"/>
       <c r="FT46" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="FU46" s="2" t="s">
         <v>1307</v>
-      </c>
-      <c r="FU46" s="2" t="s">
-        <v>1308</v>
       </c>
       <c r="FV46" s="2"/>
       <c r="FW46" s="2"/>
       <c r="FX46" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="FY46" s="2" t="s">
         <v>1309</v>
-      </c>
-      <c r="FY46" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="FZ46" s="2"/>
       <c r="GA46" s="2"/>
       <c r="GB46" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="GC46" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="GC46" s="2" t="s">
+      <c r="GD46" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="GD46" s="2" t="s">
+      <c r="GE46" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="GE46" s="2" t="s">
-        <v>1314</v>
       </c>
       <c r="GF46" s="2"/>
       <c r="GG46" s="2"/>
       <c r="GH46" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="GI46" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="GI46" s="2" t="s">
-        <v>1316</v>
       </c>
       <c r="GJ46" s="2"/>
       <c r="GK46" s="2"/>
       <c r="GL46" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="GM46" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="GM46" s="2" t="s">
-        <v>1318</v>
       </c>
       <c r="GN46" s="2"/>
       <c r="GO46" s="2"/>
       <c r="GP46" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="GQ46" s="2" t="s">
         <v>1319</v>
-      </c>
-      <c r="GQ46" s="2" t="s">
-        <v>1320</v>
       </c>
       <c r="GR46" s="2"/>
       <c r="GS46" s="2"/>
@@ -25914,10 +25914,10 @@
       <c r="HB46" s="2"/>
       <c r="HC46" s="2"/>
       <c r="HD46" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="HE46" s="2" t="s">
         <v>1321</v>
-      </c>
-      <c r="HE46" s="2" t="s">
-        <v>1322</v>
       </c>
       <c r="HF46" s="2"/>
       <c r="HG46" s="2"/>
@@ -25928,18 +25928,18 @@
       <c r="HL46" s="2"/>
       <c r="HM46" s="2"/>
       <c r="HN46" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="HO46" s="2" t="s">
         <v>1323</v>
-      </c>
-      <c r="HO46" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="HP46" s="2"/>
       <c r="HQ46" s="2"/>
       <c r="HR46" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="HS46" s="2" t="s">
         <v>1325</v>
-      </c>
-      <c r="HS46" s="2" t="s">
-        <v>1326</v>
       </c>
       <c r="HT46" s="2"/>
       <c r="HU46" s="2"/>
@@ -25948,10 +25948,10 @@
       <c r="HX46" s="2"/>
       <c r="HY46" s="2"/>
       <c r="HZ46" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="IA46" s="2" t="s">
         <v>1327</v>
-      </c>
-      <c r="IA46" s="2" t="s">
-        <v>1328</v>
       </c>
       <c r="IB46" s="2"/>
       <c r="IC46" s="2"/>
@@ -26052,7 +26052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>317</v>
       </c>
@@ -26132,7 +26132,7 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="1"/>
       <c r="AU47" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="AV47" s="1">
         <v>1</v>
@@ -26176,7 +26176,7 @@
         <v>2</v>
       </c>
       <c r="CC47" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="CD47" s="1">
         <v>1</v>
@@ -26285,10 +26285,10 @@
         <v>4</v>
       </c>
       <c r="ED47" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="EE47" s="2" t="s">
         <v>1331</v>
-      </c>
-      <c r="EE47" s="2" t="s">
-        <v>1332</v>
       </c>
       <c r="EF47" s="2"/>
       <c r="EG47" s="2"/>
@@ -26297,10 +26297,10 @@
       <c r="EJ47" s="2"/>
       <c r="EK47" s="2"/>
       <c r="EL47" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="EM47" s="2" t="s">
         <v>1333</v>
-      </c>
-      <c r="EM47" s="2" t="s">
-        <v>1334</v>
       </c>
       <c r="EN47" s="2"/>
       <c r="EO47" s="2"/>
@@ -26309,10 +26309,10 @@
       <c r="ER47" s="2"/>
       <c r="ES47" s="2"/>
       <c r="ET47" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="EU47" s="2" t="s">
         <v>1335</v>
-      </c>
-      <c r="EU47" s="2" t="s">
-        <v>1336</v>
       </c>
       <c r="EV47" s="2"/>
       <c r="EW47" s="2"/>
@@ -26323,16 +26323,16 @@
       <c r="FB47" s="2"/>
       <c r="FC47" s="2"/>
       <c r="FD47" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="FE47" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="FE47" s="2" t="s">
+      <c r="FF47" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="FF47" s="2" t="s">
+      <c r="FG47" s="2" t="s">
         <v>1339</v>
-      </c>
-      <c r="FG47" s="2" t="s">
-        <v>1340</v>
       </c>
       <c r="FH47" s="2"/>
       <c r="FI47" s="2"/>
@@ -26341,18 +26341,18 @@
       <c r="FL47" s="2"/>
       <c r="FM47" s="2"/>
       <c r="FN47" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="FO47" s="2" t="s">
         <v>1341</v>
-      </c>
-      <c r="FO47" s="2" t="s">
-        <v>1342</v>
       </c>
       <c r="FP47" s="2"/>
       <c r="FQ47" s="2"/>
       <c r="FR47" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="FS47" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="FS47" s="2" t="s">
-        <v>1344</v>
       </c>
       <c r="FT47" s="2"/>
       <c r="FU47" s="2"/>
@@ -26365,10 +26365,10 @@
       <c r="GB47" s="2"/>
       <c r="GC47" s="2"/>
       <c r="GD47" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="GE47" s="2" t="s">
         <v>1345</v>
-      </c>
-      <c r="GE47" s="2" t="s">
-        <v>1346</v>
       </c>
       <c r="GF47" s="2"/>
       <c r="GG47" s="2"/>
@@ -26391,18 +26391,18 @@
       <c r="GX47" s="2"/>
       <c r="GY47" s="2"/>
       <c r="GZ47" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="HA47" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="HA47" s="2" t="s">
-        <v>1348</v>
       </c>
       <c r="HB47" s="2"/>
       <c r="HC47" s="2"/>
       <c r="HD47" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="HE47" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="HE47" s="2" t="s">
-        <v>1350</v>
       </c>
       <c r="HF47" s="2"/>
       <c r="HG47" s="2"/>
@@ -26517,7 +26517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>318</v>
       </c>
@@ -26736,10 +26736,10 @@
         <v>4</v>
       </c>
       <c r="ED48" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="EE48" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="EE48" s="2" t="s">
-        <v>1352</v>
       </c>
       <c r="EF48" s="2"/>
       <c r="EG48" s="2"/>
@@ -26750,10 +26750,10 @@
       <c r="EL48" s="2"/>
       <c r="EM48" s="2"/>
       <c r="EN48" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="EO48" s="2" t="s">
         <v>1353</v>
-      </c>
-      <c r="EO48" s="2" t="s">
-        <v>1354</v>
       </c>
       <c r="EP48" s="2"/>
       <c r="EQ48" s="2"/>
@@ -26770,18 +26770,18 @@
       <c r="FB48" s="2"/>
       <c r="FC48" s="2"/>
       <c r="FD48" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="FE48" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="FE48" s="2" t="s">
-        <v>1356</v>
       </c>
       <c r="FF48" s="2"/>
       <c r="FG48" s="2"/>
       <c r="FH48" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="FI48" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="FI48" s="2" t="s">
-        <v>1358</v>
       </c>
       <c r="FJ48" s="2"/>
       <c r="FK48" s="2"/>
@@ -26800,18 +26800,18 @@
       <c r="FX48" s="2"/>
       <c r="FY48" s="2"/>
       <c r="FZ48" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="GA48" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="GA48" s="2" t="s">
-        <v>1360</v>
       </c>
       <c r="GB48" s="2"/>
       <c r="GC48" s="2"/>
       <c r="GD48" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="GE48" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="GE48" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="GF48" s="2"/>
       <c r="GG48" s="2"/>
@@ -26838,10 +26838,10 @@
       <c r="HB48" s="2"/>
       <c r="HC48" s="2"/>
       <c r="HD48" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="HE48" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="HE48" s="2" t="s">
-        <v>1364</v>
       </c>
       <c r="HF48" s="2"/>
       <c r="HG48" s="2"/>
@@ -26854,10 +26854,10 @@
       <c r="HN48" s="2"/>
       <c r="HO48" s="2"/>
       <c r="HP48" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="HQ48" s="2" t="s">
         <v>1365</v>
-      </c>
-      <c r="HQ48" s="2" t="s">
-        <v>1366</v>
       </c>
       <c r="HR48" s="2"/>
       <c r="HS48" s="2"/>
@@ -26952,7 +26952,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>319</v>
       </c>
@@ -27205,10 +27205,10 @@
         <v>4</v>
       </c>
       <c r="ED49" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="EE49" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="EE49" s="2" t="s">
-        <v>1368</v>
       </c>
       <c r="EF49" s="2"/>
       <c r="EG49" s="2"/>
@@ -27221,10 +27221,10 @@
       <c r="EN49" s="2"/>
       <c r="EO49" s="2"/>
       <c r="EP49" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="EQ49" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="EQ49" s="2" t="s">
-        <v>1370</v>
       </c>
       <c r="ER49" s="2"/>
       <c r="ES49" s="2"/>
@@ -27235,22 +27235,22 @@
       <c r="EX49" s="2"/>
       <c r="EY49" s="2"/>
       <c r="EZ49" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="FA49" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="FA49" s="2" t="s">
+      <c r="FB49" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="FB49" s="2" t="s">
+      <c r="FC49" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="FC49" s="2" t="s">
+      <c r="FD49" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="FD49" s="2" t="s">
+      <c r="FE49" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="FE49" s="2" t="s">
-        <v>1376</v>
       </c>
       <c r="FF49" s="2"/>
       <c r="FG49" s="2"/>
@@ -27259,10 +27259,10 @@
       <c r="FJ49" s="2"/>
       <c r="FK49" s="2"/>
       <c r="FL49" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="FM49" s="2" t="s">
         <v>1377</v>
-      </c>
-      <c r="FM49" s="2" t="s">
-        <v>1378</v>
       </c>
       <c r="FN49" s="2"/>
       <c r="FO49" s="2"/>
@@ -27281,16 +27281,16 @@
       <c r="GB49" s="2"/>
       <c r="GC49" s="2"/>
       <c r="GD49" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="GE49" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="GE49" s="2" t="s">
+      <c r="GF49" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="GF49" s="2" t="s">
+      <c r="GG49" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="GG49" s="2" t="s">
-        <v>1382</v>
       </c>
       <c r="GH49" s="2"/>
       <c r="GI49" s="2"/>
@@ -27299,30 +27299,30 @@
       <c r="GL49" s="2"/>
       <c r="GM49" s="2"/>
       <c r="GN49" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="GO49" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="GO49" s="2" t="s">
-        <v>1384</v>
       </c>
       <c r="GP49" s="2"/>
       <c r="GQ49" s="2"/>
       <c r="GR49" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="GS49" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="GS49" s="2" t="s">
+      <c r="GT49" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="GT49" s="2" t="s">
+      <c r="GU49" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="GU49" s="2" t="s">
+      <c r="GV49" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="GV49" s="2" t="s">
+      <c r="GW49" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="GW49" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="GX49" s="2"/>
       <c r="GY49" s="2"/>
@@ -27331,24 +27331,24 @@
       <c r="HB49" s="2"/>
       <c r="HC49" s="2"/>
       <c r="HD49" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="HE49" s="2" t="s">
         <v>1391</v>
-      </c>
-      <c r="HE49" s="2" t="s">
-        <v>1392</v>
       </c>
       <c r="HF49" s="2"/>
       <c r="HG49" s="2"/>
       <c r="HH49" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="HI49" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="HI49" s="2" t="s">
+      <c r="HJ49" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="HJ49" s="2" t="s">
+      <c r="HK49" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="HK49" s="2" t="s">
-        <v>1396</v>
       </c>
       <c r="HL49" s="2"/>
       <c r="HM49" s="2"/>
@@ -27363,10 +27363,10 @@
       <c r="HV49" s="2"/>
       <c r="HW49" s="2"/>
       <c r="HX49" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="HY49" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="HY49" s="2" t="s">
-        <v>1398</v>
       </c>
       <c r="HZ49" s="2"/>
       <c r="IA49" s="2"/>
@@ -27469,7 +27469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:275" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>320</v>
       </c>
@@ -27559,7 +27559,7 @@
       <c r="BA50" s="2"/>
       <c r="BB50" s="1"/>
       <c r="BC50" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="BD50" s="1">
         <v>1</v>
@@ -27718,10 +27718,10 @@
         <v>2</v>
       </c>
       <c r="ED50" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="EE50" s="2" t="s">
         <v>1400</v>
-      </c>
-      <c r="EE50" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="EF50" s="2"/>
       <c r="EG50" s="2"/>
@@ -27730,20 +27730,20 @@
       <c r="EJ50" s="2"/>
       <c r="EK50" s="2"/>
       <c r="EL50" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="EM50" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="EM50" s="2" t="s">
-        <v>1403</v>
       </c>
       <c r="EN50" s="2"/>
       <c r="EO50" s="2"/>
       <c r="EP50" s="2"/>
       <c r="EQ50" s="2"/>
       <c r="ER50" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="ES50" s="2" t="s">
         <v>1404</v>
-      </c>
-      <c r="ES50" s="2" t="s">
-        <v>1405</v>
       </c>
       <c r="ET50" s="2"/>
       <c r="EU50" s="2"/>
@@ -27754,36 +27754,36 @@
       <c r="EZ50" s="2"/>
       <c r="FA50" s="2"/>
       <c r="FB50" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="FC50" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="FC50" s="2" t="s">
+      <c r="FD50" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="FD50" s="2" t="s">
+      <c r="FE50" s="2" t="s">
         <v>1408</v>
-      </c>
-      <c r="FE50" s="2" t="s">
-        <v>1409</v>
       </c>
       <c r="FF50" s="2"/>
       <c r="FG50" s="2"/>
       <c r="FH50" s="2"/>
       <c r="FI50" s="2"/>
       <c r="FJ50" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="FK50" s="2" t="s">
         <v>1410</v>
-      </c>
-      <c r="FK50" s="2" t="s">
-        <v>1411</v>
       </c>
       <c r="FL50" s="2"/>
       <c r="FM50" s="2"/>
       <c r="FN50" s="2"/>
       <c r="FO50" s="2"/>
       <c r="FP50" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="FQ50" s="2" t="s">
         <v>1412</v>
-      </c>
-      <c r="FQ50" s="2" t="s">
-        <v>1413</v>
       </c>
       <c r="FR50" s="2"/>
       <c r="FS50" s="2"/>
@@ -27794,24 +27794,24 @@
       <c r="FX50" s="2"/>
       <c r="FY50" s="2"/>
       <c r="FZ50" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="GA50" s="2" t="s">
         <v>1414</v>
-      </c>
-      <c r="GA50" s="2" t="s">
-        <v>1415</v>
       </c>
       <c r="GB50" s="2"/>
       <c r="GC50" s="2"/>
       <c r="GD50" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="GE50" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="GE50" s="2" t="s">
+      <c r="GF50" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="GF50" s="2" t="s">
+      <c r="GG50" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="GG50" s="2" t="s">
-        <v>1419</v>
       </c>
       <c r="GH50" s="2"/>
       <c r="GI50" s="2"/>
@@ -27820,10 +27820,10 @@
       <c r="GL50" s="2"/>
       <c r="GM50" s="2"/>
       <c r="GN50" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="GO50" s="2" t="s">
         <v>1420</v>
-      </c>
-      <c r="GO50" s="2" t="s">
-        <v>1421</v>
       </c>
       <c r="GP50" s="2"/>
       <c r="GQ50" s="2"/>
@@ -27832,10 +27832,10 @@
       <c r="GT50" s="2"/>
       <c r="GU50" s="2"/>
       <c r="GV50" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="GW50" s="2" t="s">
         <v>1422</v>
-      </c>
-      <c r="GW50" s="2" t="s">
-        <v>1423</v>
       </c>
       <c r="GX50" s="2"/>
       <c r="GY50" s="2"/>
@@ -27844,18 +27844,18 @@
       <c r="HB50" s="2"/>
       <c r="HC50" s="2"/>
       <c r="HD50" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="HE50" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="HE50" s="2" t="s">
-        <v>1425</v>
       </c>
       <c r="HF50" s="2"/>
       <c r="HG50" s="2"/>
       <c r="HH50" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="HI50" s="2" t="s">
         <v>1426</v>
-      </c>
-      <c r="HI50" s="2" t="s">
-        <v>1427</v>
       </c>
       <c r="HJ50" s="2"/>
       <c r="HK50" s="2"/>
@@ -27868,18 +27868,18 @@
       <c r="HR50" s="2"/>
       <c r="HS50" s="2"/>
       <c r="HT50" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="HU50" s="2" t="s">
         <v>1428</v>
-      </c>
-      <c r="HU50" s="2" t="s">
-        <v>1429</v>
       </c>
       <c r="HV50" s="2"/>
       <c r="HW50" s="2"/>
       <c r="HX50" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="HY50" s="2" t="s">
         <v>1430</v>
-      </c>
-      <c r="HY50" s="2" t="s">
-        <v>1431</v>
       </c>
       <c r="HZ50" s="2"/>
       <c r="IA50" s="2"/>
